--- a/hourly datasets/cap_gen_year7final.xlsx
+++ b/hourly datasets/cap_gen_year7final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1185818545734727</v>
+        <v>0.1092515172334684</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002556465405204568</v>
+        <v>0.0003786836924110576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003370515413721244</v>
+        <v>0.0005234618411666489</v>
       </c>
       <c r="D3" t="n">
-        <v>2.88607511814198</v>
+        <v>3.051430761016436</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1472394246910846</v>
+        <v>0.0229775216029635</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004049762353492737</v>
+        <v>-0.0006472865170047952</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009162693163901876</v>
+        <v>0.00140465390182691</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1211383199786773</v>
+        <v>0.1096302009258794</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005977386205211397</v>
+        <v>0.003005056176465428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003992184751717615</v>
+        <v>0.000716442962551953</v>
       </c>
       <c r="D4" t="n">
-        <v>4.616519211878352</v>
+        <v>6.358182644091029</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1536055320751344</v>
+        <v>0.01609570926523277</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001847348974960332</v>
+        <v>0.001600848385325376</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01380212138538312</v>
+        <v>0.00440926396760548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1245592407786841</v>
+        <v>0.1122565734099338</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00976608554373631</v>
+        <v>0.01573271205740587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003869976091160931</v>
+        <v>0.001374835634167393</v>
       </c>
       <c r="D5" t="n">
-        <v>4.331414590446213</v>
+        <v>11.34247894681815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1127128766894853</v>
+        <v>0.08581123217433899</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002180886437802885</v>
+        <v>0.01303807334480385</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01735128464966974</v>
+        <v>0.01842735077000788</v>
       </c>
       <c r="H5" t="n">
-        <v>0.128347940117209</v>
+        <v>0.1249842292908742</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01430708540015213</v>
+        <v>0.02437826814118802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006916129628327272</v>
+        <v>0.004721501975969864</v>
       </c>
       <c r="D6" t="n">
-        <v>3.193660166999656</v>
+        <v>9.644055900210581</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1466128489051309</v>
+        <v>0.2153419071376526</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003931322414607927</v>
+        <v>0.01512425957923483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02106701947207273</v>
+        <v>0.03363227670314121</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1328889399736249</v>
+        <v>0.1336297853746564</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01026145442722162</v>
+        <v>0.02616946103183122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006150480995629794</v>
+        <v>0.004263896006435288</v>
       </c>
       <c r="D7" t="n">
-        <v>2.246969488515338</v>
+        <v>8.112483971818488</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1966822354309893</v>
+        <v>0.07125234345880059</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001190132403932351</v>
+        <v>0.01781235084809405</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01508776514039472</v>
+        <v>0.03452657121556838</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1288433090006944</v>
+        <v>0.1354209782652996</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009879011424840076</v>
+        <v>0.02939336363868053</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004843002508125817</v>
+        <v>0.004065125816084954</v>
       </c>
       <c r="D8" t="n">
-        <v>1.866897499385273</v>
+        <v>9.955970666601123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.276094677227179</v>
+        <v>0.04948282583821543</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003209276214745216</v>
+        <v>0.02142583922326095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01197367737043983</v>
+        <v>0.03736088805410012</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1284608659983128</v>
+        <v>0.1386448808721489</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01314772091710057</v>
+        <v>0.03654309030418693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006255147451302697</v>
+        <v>0.002641373709231868</v>
       </c>
       <c r="D9" t="n">
-        <v>1.992295370827221</v>
+        <v>10.08081428379742</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8508633067751866</v>
+        <v>0.008602939053818722</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004519749585590302</v>
+        <v>0.03136607763740564</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01476773216088072</v>
+        <v>0.04172010297096822</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1317295754905733</v>
+        <v>0.1457946075376553</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1185818545734727</v>
+        <v>-0.1092515172334684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001594917473635135</v>
+        <v>0.0004417530203152026</v>
       </c>
       <c r="D10" t="n">
-        <v>-122.0501616232356</v>
+        <v>-258.5107752082333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004207681494363489</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.121707937284851</v>
+        <v>-0.1101173406010237</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1154557718620946</v>
+        <v>-0.108385693865913</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0518363620126273</v>
+        <v>-0.04923659764432254</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001731119752225235</v>
+        <v>0.0005032604742101206</v>
       </c>
       <c r="D11" t="n">
-        <v>-45.05617296721604</v>
+        <v>-101.8510236846971</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008461147716459698</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05522939867897263</v>
+        <v>-0.05022297394184667</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04844332534628199</v>
+        <v>-0.04825022134679842</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06674549256084544</v>
+        <v>0.06001491958914582</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04456406558748467</v>
+        <v>-0.04358314019471648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001705854087768445</v>
+        <v>0.0004922985833009629</v>
       </c>
       <c r="D12" t="n">
-        <v>-40.12874607796</v>
+        <v>-92.8253905059364</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0155685563570109</v>
+        <v>1.003617431177309e-300</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04790758260373706</v>
+        <v>-0.04454803153826932</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04122054857123229</v>
+        <v>-0.04261824885116364</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07401778898598807</v>
+        <v>0.06566837703875189</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03788034241194771</v>
+        <v>-0.03525661579933682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001694933617731525</v>
+        <v>0.0004836667498322539</v>
       </c>
       <c r="D13" t="n">
-        <v>-34.09328835495507</v>
+        <v>-75.33782534724892</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01395322008633399</v>
+        <v>1.585710338892861e-308</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0412024566390666</v>
+        <v>-0.03620458889803842</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03455822818482881</v>
+        <v>-0.03430864270063522</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08070151216152503</v>
+        <v>0.07399490143413154</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03224118593714427</v>
+        <v>-0.02917869067366006</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001690767364477988</v>
+        <v>0.000472303102981849</v>
       </c>
       <c r="D14" t="n">
-        <v>-29.84016265830146</v>
+        <v>-62.94586745426815</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004778453637172818</v>
+        <v>7.090887278709099e-201</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0355551361359091</v>
+        <v>-0.03010439128024484</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02892723573837945</v>
+        <v>-0.02825299006707527</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08634066863632847</v>
+        <v>0.08007282655980831</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02763632466074125</v>
+        <v>-0.02430368739204947</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00163798905742082</v>
+        <v>0.0004533927914866108</v>
       </c>
       <c r="D15" t="n">
-        <v>-26.40376678591812</v>
+        <v>-54.62890543909047</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01413356569570913</v>
+        <v>6.182682758706705e-86</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03084683091316372</v>
+        <v>-0.02519232432669894</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0244258184083188</v>
+        <v>-0.0234150504574</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0909455299127315</v>
+        <v>0.0849478298414189</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02499349203105349</v>
+        <v>-0.02198077672140187</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001591896778888633</v>
+        <v>0.0004452368967848326</v>
       </c>
       <c r="D16" t="n">
-        <v>-24.81500232126834</v>
+        <v>-50.43381914662623</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02453224394072904</v>
+        <v>1.791947137627677e-73</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02811365528133635</v>
+        <v>-0.02285342842974601</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02187332878077062</v>
+        <v>-0.02110812501305772</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09358836254241926</v>
+        <v>0.0872707405120665</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02400830426467636</v>
+        <v>-0.02041562309456206</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001631113529864244</v>
+        <v>0.0004589752218225486</v>
       </c>
       <c r="D17" t="n">
-        <v>-23.1499852989025</v>
+        <v>-45.68227010951593</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02452207231804145</v>
+        <v>1.339812432967346e-33</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02720532902062158</v>
+        <v>-0.02131520148114452</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02081127950873115</v>
+        <v>-0.01951604470797961</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09457355030879638</v>
+        <v>0.0888358941389063</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02099218369177848</v>
+        <v>-0.01828536644378089</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001654049520892556</v>
+        <v>0.0004573163500083862</v>
       </c>
       <c r="D18" t="n">
-        <v>-20.99117986264453</v>
+        <v>-42.14415701262025</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03880081013638108</v>
+        <v>9.432821093385412e-17</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02423416574984563</v>
+        <v>-0.0191816934424996</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01775020163371133</v>
+        <v>-0.01738903944506218</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09758967088169426</v>
+        <v>0.09096615078968748</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01800801667165639</v>
+        <v>-0.01451477120554883</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001657478834680172</v>
+        <v>0.0004466295061027155</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.68826991333787</v>
+        <v>-33.77353424832028</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03363090832863669</v>
+        <v>0.0258078019153806</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02125671828933595</v>
+        <v>-0.01539015226009925</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01475931505397685</v>
+        <v>-0.01363939015099841</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1005738379018164</v>
+        <v>0.09473674602791952</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01357254715524818</v>
+        <v>-0.01099169640886734</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001661393164406913</v>
+        <v>0.0004579375002018215</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.72752011631997</v>
+        <v>-25.37749700439542</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06860954191666221</v>
+        <v>0.009463938449336297</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01682892080299079</v>
+        <v>-0.01188924084957786</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01031617350750557</v>
+        <v>-0.01009415196815682</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1050093074182246</v>
+        <v>0.09825982082460102</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01034267609697535</v>
+        <v>-0.00838126266252689</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001657347740163249</v>
+        <v>0.0004547068561464612</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.83725358383486</v>
+        <v>-19.66723917847885</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03169409576075077</v>
+        <v>3.800522286159876e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01359111985702911</v>
+        <v>-0.00927247509842789</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007094232336921589</v>
+        <v>-0.007490050226625889</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1082391784764974</v>
+        <v>0.1008702545709415</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.008429655189500181</v>
+        <v>-0.006516578438563062</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001705465290029788</v>
+        <v>0.0004500718100747738</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.202996267005814</v>
+        <v>-16.06690342537115</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08286073942956713</v>
+        <v>2.072965561200962e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01177243589665693</v>
+        <v>-0.007398706292282006</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005086874482343428</v>
+        <v>-0.005634450584844118</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1101521993839726</v>
+        <v>0.1027349387949053</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005349676895533121</v>
+        <v>-0.004834377299731717</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001720355547330601</v>
+        <v>0.0004457097487561667</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.528739762796995</v>
+        <v>-12.45685317456049</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0654521270193104</v>
+        <v>0.06499528193420305</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.008721657466272976</v>
+        <v>-0.005707955637653282</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.001977696324793262</v>
+        <v>-0.00396079896181015</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1132321776779396</v>
+        <v>0.1044171399337366</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002152593407121254</v>
+        <v>-0.002853841335796048</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001727603097564485</v>
+        <v>0.0004317966924833947</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.339388956398935</v>
+        <v>-7.066509358383073</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07335666815114535</v>
+        <v>0.04722473584311705</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00553879275069274</v>
+        <v>-0.00370015047167107</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001233605936450229</v>
+        <v>-0.002007532199921025</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1164292611663515</v>
+        <v>0.1063976758976723</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0006068823096755134</v>
+        <v>-0.00124576507936059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001589318908453906</v>
+        <v>0.000410807427333105</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.169429175429392</v>
+        <v>-3.349684285051641</v>
       </c>
       <c r="E25" t="n">
-        <v>0.105153065699357</v>
+        <v>0.07982811500891104</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002508225907519496</v>
+        <v>-0.002050935879165034</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003721990526870524</v>
+        <v>-0.000440594279556145</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1191887368831483</v>
+        <v>0.1080057521541078</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03591872462394097</v>
+        <v>0.07860134012120554</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004909820534274982</v>
+        <v>0.002720485738972481</v>
       </c>
       <c r="D26" t="n">
-        <v>10.83395172955284</v>
+        <v>54.69272957287313</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1035104252933634</v>
+        <v>1.530880959535897e-07</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03028540625985255</v>
+        <v>0.07326925762690703</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0369242130912402</v>
+        <v>0.08393342261550404</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1545005791974137</v>
+        <v>0.1878528573546739</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year7final.xlsx
+++ b/hourly datasets/cap_gen_year7final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1092515172334684</v>
+        <v>0.1060625541470821</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0003786836924110576</v>
+        <v>0.0007245071962317712</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005234618411666489</v>
+        <v>0.0007443622196899128</v>
       </c>
       <c r="D3" t="n">
-        <v>3.051430761016436</v>
+        <v>3.23817707149851</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0229775216029635</v>
+        <v>0.1250255199350772</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0006472865170047952</v>
+        <v>-0.0007344288872976918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00140465390182691</v>
+        <v>0.002183443279761234</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1096302009258794</v>
+        <v>0.1067870613433138</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003005056176465428</v>
+        <v>0.002656170852247809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000716442962551953</v>
+        <v>0.0006987035362455725</v>
       </c>
       <c r="D4" t="n">
-        <v>6.358182644091029</v>
+        <v>6.131061830285917</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01609570926523277</v>
+        <v>0.06596351863477383</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001600848385325376</v>
+        <v>0.001286732337675716</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00440926396760548</v>
+        <v>0.004025609366819901</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1122565734099338</v>
+        <v>0.1087187249993299</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01573271205740587</v>
+        <v>0.01525945815177249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001374835634167393</v>
+        <v>0.001486498711012361</v>
       </c>
       <c r="D5" t="n">
-        <v>11.34247894681815</v>
+        <v>10.50652829311554</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08581123217433899</v>
+        <v>0.1236949009675505</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01303807334480385</v>
+        <v>0.01234596494588746</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01842735077000788</v>
+        <v>0.01817295135765751</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1249842292908742</v>
+        <v>0.1213220122988545</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02437826814118802</v>
+        <v>0.02229720247878492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004721501975969864</v>
+        <v>0.004617729180002563</v>
       </c>
       <c r="D6" t="n">
-        <v>9.644055900210581</v>
+        <v>7.969014209178393</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2153419071376526</v>
+        <v>0.08145445571871342</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01512425957923483</v>
+        <v>0.01324658584814021</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03363227670314121</v>
+        <v>0.03134781910942961</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1336297853746564</v>
+        <v>0.128359756625867</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02616946103183122</v>
+        <v>0.02195883818036966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004263896006435288</v>
+        <v>0.004366516425569586</v>
       </c>
       <c r="D7" t="n">
-        <v>8.112483971818488</v>
+        <v>6.428976563669679</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07125234345880059</v>
+        <v>0.1513242877631708</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01781235084809405</v>
+        <v>0.01340059575294211</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03452657121556838</v>
+        <v>0.03051708060779721</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1354209782652996</v>
+        <v>0.1280213923274517</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02939336363868053</v>
+        <v>0.02448534756800352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004065125816084954</v>
+        <v>0.004226237066748398</v>
       </c>
       <c r="D8" t="n">
-        <v>9.955970666601123</v>
+        <v>7.887146702315167</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04948282583821543</v>
+        <v>0.09633110881189219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02142583922326095</v>
+        <v>0.01620205067927856</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03736088805410012</v>
+        <v>0.03276864445672848</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1386448808721489</v>
+        <v>0.1305479017150856</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03654309030418693</v>
+        <v>0.03168769409970297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002641373709231868</v>
+        <v>0.002954472392243711</v>
       </c>
       <c r="D9" t="n">
-        <v>10.08081428379742</v>
+        <v>8.053161095150092</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008602939053818722</v>
+        <v>0.06183060238576493</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03136607763740564</v>
+        <v>0.02589701800451565</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04172010297096822</v>
+        <v>0.03747837019489029</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1457946075376553</v>
+        <v>0.137750248246785</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1092515172334684</v>
+        <v>-0.1060625541470821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004417530203152026</v>
+        <v>0.0004552546386698938</v>
       </c>
       <c r="D10" t="n">
-        <v>-258.5107752082333</v>
+        <v>-253.1423258753044</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1101173406010237</v>
+        <v>-0.1069548414715465</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.108385693865913</v>
+        <v>-0.1051702668226176</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04923659764432254</v>
+        <v>-0.04800450611801081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005032604742101206</v>
+        <v>0.0005118195353202107</v>
       </c>
       <c r="D11" t="n">
-        <v>-101.8510236846971</v>
+        <v>-100.7448314855292</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.370682553138521e-93</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05022297394184667</v>
+        <v>-0.04900765909462755</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04825022134679842</v>
+        <v>-0.04700135314139407</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06001491958914582</v>
+        <v>0.05805804802907125</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04358314019471648</v>
+        <v>-0.0425491793491834</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004922985833009629</v>
+        <v>0.0004983137194107395</v>
       </c>
       <c r="D12" t="n">
-        <v>-92.8253905059364</v>
+        <v>-91.73999872830896</v>
       </c>
       <c r="E12" t="n">
-        <v>1.003617431177309e-300</v>
+        <v>2.624417600853926e-238</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04454803153826932</v>
+        <v>-0.04352586137433688</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04261824885116364</v>
+        <v>-0.04157249732402994</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06566837703875189</v>
+        <v>0.06351337479789865</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03525661579933682</v>
+        <v>-0.03428229526150998</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004836667498322539</v>
+        <v>0.0004921851061673517</v>
       </c>
       <c r="D13" t="n">
-        <v>-75.33782534724892</v>
+        <v>-73.92029745623768</v>
       </c>
       <c r="E13" t="n">
-        <v>1.585710338892861e-308</v>
+        <v>4.08621224189804e-99</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03620458889803842</v>
+        <v>-0.03524696522246298</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03430864270063522</v>
+        <v>-0.03331762530055696</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07399490143413154</v>
+        <v>0.07178025888557207</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02917869067366006</v>
+        <v>-0.02819773752592764</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000472303102981849</v>
+        <v>0.000483693956562102</v>
       </c>
       <c r="D14" t="n">
-        <v>-62.94586745426815</v>
+        <v>-61.34058301664509</v>
       </c>
       <c r="E14" t="n">
-        <v>7.090887278709099e-201</v>
+        <v>1.001499313201209e-103</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03010439128024484</v>
+        <v>-0.02914576499256806</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02825299006707527</v>
+        <v>-0.02724971005928723</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08007282655980831</v>
+        <v>0.07786481662115442</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02430368739204947</v>
+        <v>-0.02331279250604781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004533927914866108</v>
+        <v>0.0004680948333785665</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.62890543909047</v>
+        <v>-52.14456090436921</v>
       </c>
       <c r="E15" t="n">
-        <v>6.182682758706705e-86</v>
+        <v>3.225398086841506e-75</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02519232432669894</v>
+        <v>-0.02423024612239618</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0234150504574</v>
+        <v>-0.02239533888969942</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0849478298414189</v>
+        <v>0.08274976164103426</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02198077672140187</v>
+        <v>-0.02088911250551759</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004452368967848326</v>
+        <v>0.0004572009267039843</v>
       </c>
       <c r="D16" t="n">
-        <v>-50.43381914662623</v>
+        <v>-48.33671484913696</v>
       </c>
       <c r="E16" t="n">
-        <v>1.791947137627677e-73</v>
+        <v>1.93155749110386e-42</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02285342842974601</v>
+        <v>-0.02178521450676003</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02110812501305772</v>
+        <v>-0.01999301050427516</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0872707405120665</v>
+        <v>0.08517344164156446</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02041562309456206</v>
+        <v>-0.01944427582999905</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004589752218225486</v>
+        <v>0.0004719501831941788</v>
       </c>
       <c r="D17" t="n">
-        <v>-45.68227010951593</v>
+        <v>-44.06683710721078</v>
       </c>
       <c r="E17" t="n">
-        <v>1.339812432967346e-33</v>
+        <v>1.083647584324339e-49</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02131520148114452</v>
+        <v>-0.02036928589256602</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01951604470797961</v>
+        <v>-0.01851926576743209</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0888358941389063</v>
+        <v>0.08661827831708301</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01828536644378089</v>
+        <v>-0.01743025500388176</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004573163500083862</v>
+        <v>0.0004702190810085049</v>
       </c>
       <c r="D18" t="n">
-        <v>-42.14415701262025</v>
+        <v>-40.63426330008254</v>
       </c>
       <c r="E18" t="n">
-        <v>9.432821093385412e-17</v>
+        <v>4.327319494281531e-35</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0191816934424996</v>
+        <v>-0.0183518721093802</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01738903944506218</v>
+        <v>-0.01650863789838331</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09096615078968748</v>
+        <v>0.0886322991432003</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01451477120554883</v>
+        <v>-0.01361193178124461</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004466295061027155</v>
+        <v>0.0004606024981091491</v>
       </c>
       <c r="D19" t="n">
-        <v>-33.77353424832028</v>
+        <v>-32.32727859912466</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0258078019153806</v>
+        <v>8.504107733766283e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01539015226009925</v>
+        <v>-0.01451470061091859</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01363939015099841</v>
+        <v>-0.01270916295157063</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09473674602791952</v>
+        <v>0.09245062236583745</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01099169640886734</v>
+        <v>-0.01024317155337526</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004579375002018215</v>
+        <v>0.0004713212387997702</v>
       </c>
       <c r="D20" t="n">
-        <v>-25.37749700439542</v>
+        <v>-24.20499861309992</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009463938449336297</v>
+        <v>2.025099241811734e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01188924084957786</v>
+        <v>-0.0111669488406558</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01009415196815682</v>
+        <v>-0.009319394266094717</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09825982082460102</v>
+        <v>0.0958193825937068</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.00838126266252689</v>
+        <v>-0.007664750786329133</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004547068561464612</v>
+        <v>0.0004693799433681279</v>
       </c>
       <c r="D21" t="n">
-        <v>-19.66723917847885</v>
+        <v>-18.19991355993372</v>
       </c>
       <c r="E21" t="n">
-        <v>3.800522286159876e-07</v>
+        <v>2.72743911388056e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.00927247509842789</v>
+        <v>-0.008584723173610193</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007490050226625889</v>
+        <v>-0.006744778399048071</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1008702545709415</v>
+        <v>0.09839780336075292</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006516578438563062</v>
+        <v>-0.00568115171879045</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004500718100747738</v>
+        <v>0.0004654564489852654</v>
       </c>
       <c r="D22" t="n">
-        <v>-16.06690342537115</v>
+        <v>-14.46050326180825</v>
       </c>
       <c r="E22" t="n">
-        <v>2.072965561200962e-06</v>
+        <v>4.220183425984307e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007398706292282006</v>
+        <v>-0.006593434161526759</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005634450584844118</v>
+        <v>-0.004768869276054141</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1027349387949053</v>
+        <v>0.1003814024282916</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004834377299731717</v>
+        <v>-0.00387229591663841</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004457097487561667</v>
+        <v>0.0004568177823187914</v>
       </c>
       <c r="D23" t="n">
-        <v>-12.45685317456049</v>
+        <v>-10.5281452544075</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06499528193420305</v>
+        <v>0.06398937419201157</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005707955637653282</v>
+        <v>-0.004767646821611431</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.00396079896181015</v>
+        <v>-0.002976945011665386</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1044171399337366</v>
+        <v>0.1021902582304436</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002853841335796048</v>
+        <v>-0.002174715596388619</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004317966924833947</v>
+        <v>0.0004471882381124535</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.066509358383073</v>
+        <v>-5.400846131584997</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04722473584311705</v>
+        <v>0.08074753060488932</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00370015047167107</v>
+        <v>-0.003051192961340411</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002007532199921025</v>
+        <v>-0.001298238231436826</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1063976758976723</v>
+        <v>0.1038878385506934</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.00124576507936059</v>
+        <v>-0.0007656695883445107</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000410807427333105</v>
+        <v>0.0004277876896015416</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.349684285051641</v>
+        <v>-1.900245795312483</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07982811500891104</v>
+        <v>0.008603629236467332</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002050935879165034</v>
+        <v>-0.001604122429127921</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.000440594279556145</v>
+        <v>7.278325243889934e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1080057521541078</v>
+        <v>0.1052968845587375</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07860134012120554</v>
+        <v>0.0699485370781653</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002720485738972481</v>
+        <v>0.002764081103863259</v>
       </c>
       <c r="D26" t="n">
-        <v>54.69272957287313</v>
+        <v>46.75984394106157</v>
       </c>
       <c r="E26" t="n">
-        <v>1.530880959535897e-07</v>
+        <v>9.208800103387464e-08</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07326925762690703</v>
+        <v>0.06453100923562062</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08393342261550404</v>
+        <v>0.07536606492070996</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1878528573546739</v>
+        <v>0.1760110912252474</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year7final.xlsx
+++ b/hourly datasets/cap_gen_year7final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,593 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1060625541470821</v>
+        <v>0.1366977844872838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007245071962317712</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007443622196899128</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.23817707149851</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1250255199350772</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.0007344288872976918</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.002183443279761234</v>
-      </c>
+        <v>0.1014708095780654</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1067870613433138</v>
+        <v>0.2381685940653492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002656170852247809</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0006987035362455725</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.131061830285917</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06596351863477383</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.001286732337675716</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.004025609366819901</v>
-      </c>
+        <v>0.09504324355405679</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1087187249993299</v>
+        <v>0.2317410280413406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01525945815177249</v>
+        <v>0.07518891517277827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001486498711012361</v>
+        <v>0.003888326105570001</v>
       </c>
       <c r="D5" t="n">
-        <v>10.50652829311554</v>
+        <v>14.4725285660227</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1236949009675505</v>
+        <v>0.02364861657594486</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01234596494588746</v>
+        <v>0.06756295114935075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01817295135765751</v>
+        <v>0.08281487919620742</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1213220122988545</v>
+        <v>0.2118866996600621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02229720247878492</v>
+        <v>0.04535794805247577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004617729180002563</v>
+        <v>0.002330462426408247</v>
       </c>
       <c r="D6" t="n">
-        <v>7.969014209178393</v>
+        <v>8.699996149681544</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08145445571871342</v>
+        <v>0.009982240679570873</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01324658584814021</v>
+        <v>0.04078714204647128</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03134781910942961</v>
+        <v>0.04992875405847901</v>
       </c>
       <c r="H6" t="n">
-        <v>0.128359756625867</v>
+        <v>0.1820557325397596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02195883818036966</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.004366516425569586</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.428976563669679</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1513242877631708</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01340059575294211</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.03051708060779721</v>
-      </c>
+        <v>0.04497556291474333</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.1280213923274517</v>
+        <v>0.1816733474020271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02448534756800352</v>
+        <v>0.04329038706121734</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004226237066748398</v>
+        <v>0.001899135528783068</v>
       </c>
       <c r="D8" t="n">
-        <v>7.887146702315167</v>
+        <v>4.073807668691764</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09633110881189219</v>
+        <v>0.001455890924827842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01620205067927856</v>
+        <v>0.03956622819189634</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03276864445672848</v>
+        <v>0.04701454593053825</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1305479017150856</v>
+        <v>0.1799881715485012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03168769409970297</v>
+        <v>0.04487945629961348</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002954472392243711</v>
+        <v>0.001590627539113769</v>
       </c>
       <c r="D9" t="n">
-        <v>8.053161095150092</v>
+        <v>3.160866715526685</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06183060238576493</v>
+        <v>0.0004620503509865454</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02589701800451565</v>
+        <v>0.04176128783686353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03747837019489029</v>
+        <v>0.04799762476236268</v>
       </c>
       <c r="H9" t="n">
-        <v>0.137750248246785</v>
+        <v>0.1815772407868973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1060625541470821</v>
+        <v>0.04665040245269676</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004552546386698938</v>
+        <v>0.001450678233787005</v>
       </c>
       <c r="D10" t="n">
-        <v>-253.1423258753044</v>
+        <v>3.593833457335057</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.002176023223257752</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1069548414715465</v>
+        <v>0.04380662852468191</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1051702668226176</v>
+        <v>0.04949417638070955</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1833481869399806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04800450611801081</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005118195353202107</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-100.7448314855292</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.370682553138521e-93</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.04900765909462755</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04700135314139407</v>
-      </c>
+        <v>0.02802069130141582</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05805804802907125</v>
+        <v>0.1647184757886996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0425491793491834</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0004983137194107395</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-91.73999872830896</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.624417600853926e-238</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.04352586137433688</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.04157249732402994</v>
-      </c>
+        <v>0.04764199196621936</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06351337479789865</v>
+        <v>0.1843397764535032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03428229526150998</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0004921851061673517</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-73.92029745623768</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.08621224189804e-99</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03524696522246298</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03331762530055696</v>
-      </c>
+        <v>0.06087057110567171</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07178025888557207</v>
+        <v>0.1975683555929555</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02819773752592764</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.000483693956562102</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-61.34058301664509</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.001499313201209e-103</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02914576499256806</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02724971005928723</v>
-      </c>
+        <v>0.06811327021397991</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07786481662115442</v>
+        <v>0.2048110547012637</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02331279250604781</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004680948333785665</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-52.14456090436921</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.225398086841506e-75</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02423024612239618</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02239533888969942</v>
-      </c>
+        <v>0.07399409718007252</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08274976164103426</v>
+        <v>0.2106918816673563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02088911250551759</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004572009267039843</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-48.33671484913696</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.93155749110386e-42</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02178521450676003</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.01999301050427516</v>
-      </c>
+        <v>0.07737085917299487</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08517344164156446</v>
+        <v>0.2140686436602787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01944427582999905</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004719501831941788</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-44.06683710721078</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.083647584324339e-49</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02036928589256602</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01851926576743209</v>
-      </c>
+        <v>0.08086142124692823</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08661827831708301</v>
+        <v>0.2175592057342121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01743025500388176</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004702190810085049</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-40.63426330008254</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.327319494281531e-35</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.0183518721093802</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01650863789838331</v>
-      </c>
+        <v>-0.1366977844872838</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.0886322991432003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01361193178124461</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004606024981091491</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-32.32727859912466</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.504107733766283e-13</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01451470061091859</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01270916295157063</v>
-      </c>
+        <v>0.08245393505534257</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.09245062236583745</v>
+        <v>0.2191517195426264</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01024317155337526</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0004713212387997702</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-24.20499861309992</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.025099241811734e-06</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.0111669488406558</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.009319394266094717</v>
-      </c>
+        <v>0.08347221323673995</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.0958193825937068</v>
+        <v>0.2201699977240238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007664750786329133</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0004693799433681279</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-18.19991355993372</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2.72743911388056e-07</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.008584723173610193</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.006744778399048071</v>
-      </c>
+        <v>0.08945071900389259</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09839780336075292</v>
+        <v>0.2261485034911764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.00568115171879045</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0004654564489852654</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-14.46050326180825</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.220183425984307e-05</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.006593434161526759</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.004768869276054141</v>
-      </c>
+        <v>0.09330478370321198</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.1003814024282916</v>
+        <v>0.2300025681904958</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00387229591663841</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0004568177823187914</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-10.5281452544075</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.06398937419201157</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.004767646821611431</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.002976945011665386</v>
-      </c>
+        <v>0.09662969785831275</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.1021902582304436</v>
+        <v>0.2333274823455966</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002174715596388619</v>
+        <v>0.1003659106784945</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004471882381124535</v>
+        <v>0.007566808167560166</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.400846131584997</v>
+        <v>21.54382571369071</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08074753060488932</v>
+        <v>0.05219753106687525</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.003051192961340411</v>
+        <v>0.08548827610608073</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.001298238231436826</v>
+        <v>0.1152435452509085</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1038878385506934</v>
+        <v>0.2370636951657783</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0007656695883445107</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0004277876896015416</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-1.900245795312483</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.008603629236467332</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.001604122429127921</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.278325243889934e-05</v>
-      </c>
+        <v>0.1002050185364639</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.1052968845587375</v>
+        <v>0.2369028030237478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1027932840694724</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007482647689062686</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.67641070771652</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05892045854240344</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08807467520518511</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1175118929337601</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2394910685567562</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1086090837166956</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.007574191422100111</v>
+      </c>
+      <c r="D27" t="n">
+        <v>279246846773.1099</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06043468357943366</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09371043260124597</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1235077348321449</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2453068682039794</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.109233763102954</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007224464555576658</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20.33223285795746</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.07790929600820666</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09503846205593498</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1234290641499733</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2459315475902379</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.0699485370781653</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.002764081103863259</v>
-      </c>
-      <c r="D26" t="n">
-        <v>46.75984394106157</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.208800103387464e-08</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.06453100923562062</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.07536606492070996</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1760110912252474</v>
+      <c r="B29" t="n">
+        <v>0.04505807161601587</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.002372284664884242</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.63260943595259</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.002408353817799794</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0404039500098859</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04971219322214582</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1817558561032997</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year7final.xlsx
+++ b/hourly datasets/cap_gen_year7final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1366977844872838</v>
+        <v>0.0984234321627112</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1014708095780654</v>
+        <v>0.1047075183849701</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2381685940653492</v>
+        <v>0.2031309505476813</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09504324355405679</v>
+        <v>0.09897717964829653</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2317410280413406</v>
+        <v>0.1974006118110077</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07518891517277827</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.003888326105570001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.4725285660227</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02364861657594486</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.06756295114935075</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.08281487919620742</v>
-      </c>
+        <v>0.07947544163689636</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.2118866996600621</v>
+        <v>0.1778988737996076</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04535794805247577</v>
+        <v>0.05182823082317872</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002330462426408247</v>
+        <v>0.003393416648242191</v>
       </c>
       <c r="D6" t="n">
-        <v>8.699996149681544</v>
+        <v>10.33050640383841</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009982240679570873</v>
+        <v>0.01441222100071589</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04078714204647128</v>
+        <v>0.04516837039422728</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04992875405847901</v>
+        <v>0.05848809125213079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1820557325397596</v>
+        <v>0.1502516629858899</v>
       </c>
     </row>
     <row r="7">
@@ -592,7 +582,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04497556291474333</v>
+        <v>0.05215327718220823</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -600,7 +590,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.1816733474020271</v>
+        <v>0.1505767093449194</v>
       </c>
     </row>
     <row r="8">
@@ -610,25 +600,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04329038706121734</v>
+        <v>0.0505871872593374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001899135528783068</v>
+        <v>0.003243509853448842</v>
       </c>
       <c r="D8" t="n">
-        <v>4.073807668691764</v>
+        <v>5.580092923639919</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001455890924827842</v>
+        <v>0.01785842071342533</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03956622819189634</v>
+        <v>0.04422007702240081</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04701454593053825</v>
+        <v>0.05695429749627432</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1799881715485012</v>
+        <v>0.1490106194220486</v>
       </c>
     </row>
     <row r="9">
@@ -638,25 +628,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.04487945629961348</v>
+        <v>0.05372497167157138</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001590627539113769</v>
+        <v>0.002811005531344026</v>
       </c>
       <c r="D9" t="n">
-        <v>3.160866715526685</v>
+        <v>4.618073889692631</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004620503509865454</v>
+        <v>0.01395161275276387</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04176128783686353</v>
+        <v>0.04821209580664321</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04799762476236268</v>
+        <v>0.05923784753650124</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1815772407868973</v>
+        <v>0.1521484038342826</v>
       </c>
     </row>
     <row r="10">
@@ -666,25 +656,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04665040245269676</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001450678233787005</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.593833457335057</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.002176023223257752</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.04380662852468191</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.04949417638070955</v>
-      </c>
+        <v>0.0558167460178016</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0.1833481869399806</v>
+        <v>0.1542401781805128</v>
       </c>
     </row>
     <row r="11">
@@ -694,7 +674,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02802069130141582</v>
+        <v>0.02845956604289967</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -702,7 +682,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1647184757886996</v>
+        <v>0.1268829982056109</v>
       </c>
     </row>
     <row r="12">
@@ -712,7 +692,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04764199196621936</v>
+        <v>0.04965314735332428</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -720,7 +700,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1843397764535032</v>
+        <v>0.1480765795160355</v>
       </c>
     </row>
     <row r="13">
@@ -730,7 +710,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06087057110567171</v>
+        <v>0.06373438030096099</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -738,7 +718,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.1975683555929555</v>
+        <v>0.1621578124636722</v>
       </c>
     </row>
     <row r="14">
@@ -748,7 +728,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06811327021397991</v>
+        <v>0.07104767068378057</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -756,7 +736,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2048110547012637</v>
+        <v>0.1694711028464918</v>
       </c>
     </row>
     <row r="15">
@@ -766,7 +746,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07399409718007252</v>
+        <v>0.07553372761543573</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -774,7 +754,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2106918816673563</v>
+        <v>0.1739571597781469</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07737085917299487</v>
+        <v>0.07990381851884359</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -792,7 +772,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2140686436602787</v>
+        <v>0.1783272506815548</v>
       </c>
     </row>
     <row r="17">
@@ -802,7 +782,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08086142124692823</v>
+        <v>0.08282733730190932</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -810,7 +790,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2175592057342121</v>
+        <v>0.1812507694646205</v>
       </c>
     </row>
     <row r="18">
@@ -820,13 +800,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1366977844872838</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.0984234321627112</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01068438068956193</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-17.27768835861711</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.04626682776618744</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1194315750007144</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.07741528932470813</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -838,7 +828,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08245393505534257</v>
+        <v>0.08587118883494811</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -846,7 +836,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2191517195426264</v>
+        <v>0.1842946209976593</v>
       </c>
     </row>
     <row r="20">
@@ -856,7 +846,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08347221323673995</v>
+        <v>0.08633252247960442</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -864,7 +854,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2201699977240238</v>
+        <v>0.1847559546423156</v>
       </c>
     </row>
     <row r="21">
@@ -874,7 +864,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08945071900389259</v>
+        <v>0.0927173209213141</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -882,7 +872,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2261485034911764</v>
+        <v>0.1911407530840253</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +882,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09330478370321198</v>
+        <v>0.09534766610739499</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -900,7 +890,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2300025681904958</v>
+        <v>0.1937710982701062</v>
       </c>
     </row>
     <row r="23">
@@ -910,7 +900,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09662969785831275</v>
+        <v>0.09838714458859858</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -918,7 +908,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2333274823455966</v>
+        <v>0.1968105767513098</v>
       </c>
     </row>
     <row r="24">
@@ -928,25 +918,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1003659106784945</v>
+        <v>0.1013695941648085</v>
       </c>
       <c r="C24" t="n">
-        <v>0.007566808167560166</v>
+        <v>0.008373327976158184</v>
       </c>
       <c r="D24" t="n">
-        <v>21.54382571369071</v>
+        <v>20.72497380922693</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05219753106687525</v>
+        <v>0.05754622721266231</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08548827610608073</v>
+        <v>0.08490022277718361</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1152435452509085</v>
+        <v>0.117838965552433</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2370636951657783</v>
+        <v>0.1997930263275197</v>
       </c>
     </row>
     <row r="25">
@@ -956,15 +946,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1002050185364639</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.101888784563982</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.008371035866017383</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.46220124530411</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.05954346281266894</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08542163044845742</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1183559386795065</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2369028030237478</v>
+        <v>0.2003122167266932</v>
       </c>
     </row>
     <row r="26">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1027932840694724</v>
+        <v>0.1035065334072906</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007482647689062686</v>
+        <v>0.008286485437668741</v>
       </c>
       <c r="D26" t="n">
-        <v>20.67641070771652</v>
+        <v>20.26555869680995</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05892045854240344</v>
+        <v>0.06571045960041402</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08807467520518511</v>
+        <v>0.08720476725378171</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1175118929337601</v>
+        <v>0.1198082995607995</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2394910685567562</v>
+        <v>0.2019299655700018</v>
       </c>
     </row>
     <row r="27">
@@ -1002,25 +1002,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1086090837166956</v>
+        <v>0.110136090607751</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007574191422100111</v>
+        <v>0.008484351742612996</v>
       </c>
       <c r="D27" t="n">
-        <v>279246846773.1099</v>
+        <v>19.94007017008146</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06043468357943366</v>
+        <v>0.0676018973312657</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09371043260124597</v>
+        <v>0.09344886607715885</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1235077348321449</v>
+        <v>0.1268233151383435</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2453068682039794</v>
+        <v>0.2085595227704622</v>
       </c>
     </row>
     <row r="28">
@@ -1030,25 +1030,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.109233763102954</v>
+        <v>0.1107059510211285</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007224464555576658</v>
+        <v>0.0082153362048246</v>
       </c>
       <c r="D28" t="n">
-        <v>20.33223285795746</v>
+        <v>19.91213547012392</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07790929600820666</v>
+        <v>0.08362679391497141</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09503846205593498</v>
+        <v>0.0945506648204571</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1234290641499733</v>
+        <v>0.1268612372218009</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2459315475902379</v>
+        <v>0.2091293831838397</v>
       </c>
     </row>
     <row r="29">
@@ -1058,25 +1058,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04505807161601587</v>
+        <v>0.05551354628186445</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002372284664884242</v>
+        <v>0.00367589659326651</v>
       </c>
       <c r="D29" t="n">
-        <v>2.63260943595259</v>
+        <v>4.452279470895774</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002408353817799794</v>
+        <v>0.0058356924756495</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0404039500098859</v>
+        <v>0.04829476130608929</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04971219322214582</v>
+        <v>0.06273233125763926</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1817558561032997</v>
+        <v>0.1539369784445757</v>
       </c>
     </row>
   </sheetData>
